--- a/envo/document/data/list/13.xlsx
+++ b/envo/document/data/list/13.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>1. road: đường</t>
   </si>
@@ -27,21 +27,12 @@
     <t>3. vehicle: phương tiện</t>
   </si>
   <si>
-    <t>4. roadside: lề đường</t>
-  </si>
-  <si>
     <t>7. petrol station: trạm bơm xăng</t>
   </si>
   <si>
-    <t>9. road sign: biển chỉ đường</t>
-  </si>
-  <si>
     <t>10. pedestrian crossing: vạch sang đường</t>
   </si>
   <si>
-    <t>11. turning: chỗ rẽ, ngã rẽ</t>
-  </si>
-  <si>
     <t>15. motorway: xalộ</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>26. parking space: chỗ đỗ xe</t>
   </si>
   <si>
-    <t>28. parking ticket: vé đỗ xe</t>
-  </si>
-  <si>
     <t>29. driving licence: bằng lái xe</t>
   </si>
   <si>
@@ -102,7 +90,16 @@
     <t>59. garage: gara</t>
   </si>
   <si>
-    <t>64. signpost: biển báo</t>
+    <t>4. sidewalk: via he</t>
+  </si>
+  <si>
+    <t>28. parking ticket: vé phat đỗ xe</t>
+  </si>
+  <si>
+    <t>9. road sign: biển bao</t>
+  </si>
+  <si>
+    <t>64. signpost: biển chi duong</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,132 +467,127 @@
     </row>
     <row r="4" spans="1:1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18.75">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/envo/document/data/list/13.xlsx
+++ b/envo/document/data/list/13.xlsx
@@ -440,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
